--- a/AnalisisViaExcel/proyeccion__EXECUTE.xlsx
+++ b/AnalisisViaExcel/proyeccion__EXECUTE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPB\08\trabajo grado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPB\08\trabajo grado\Dashboard\docs\AnalisisViaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EC93C-0132-4455-A820-ACADC3413B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27CFC7-FD74-43BE-9A68-9D77A8EC0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4415A317-F4FB-4776-A3F7-878E7EDFDE56}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -635,11 +635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1160,6 +1160,174 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -2696,7 +2864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E6DF123-510B-447B-B3C4-13BA25A6CD94}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E6DF123-510B-447B-B3C4-13BA25A6CD94}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="17" showAll="0">
@@ -2905,7 +3073,7 @@
     <dataField name="Sum of Geometría analítica" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4111,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD21CFC-3F94-403A-BE03-07017600C056}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +4301,7 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>74</v>
       </c>
     </row>
@@ -4141,15 +4309,15 @@
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>41</v>
       </c>
     </row>
@@ -4157,143 +4325,143 @@
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>11</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>147</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4301,31 +4469,31 @@
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>5</v>
       </c>
     </row>
@@ -4333,31 +4501,31 @@
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>30</v>
       </c>
     </row>
@@ -4365,31 +4533,31 @@
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4565,7 @@
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4405,31 +4573,31 @@
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4437,23 +4605,23 @@
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4461,7 +4629,7 @@
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>222</v>
       </c>
     </row>
